--- a/test.xlsx
+++ b/test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Projekti" sheetId="1" state="visible" r:id="rId2"/>
@@ -462,7 +462,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="5">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -471,31 +471,10 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -545,7 +524,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -570,11 +549,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -582,15 +561,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -598,15 +573,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -614,27 +585,23 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -642,43 +609,51 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -759,10 +734,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BL5"/>
+  <dimension ref="A1:BL6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BQ2" activeCellId="0" sqref="BQ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -801,7 +776,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="0" width="12"/>
   </cols>
   <sheetData>
-    <row r="1" s="23" customFormat="true" ht="177.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" s="20" customFormat="true" ht="177.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -871,7 +846,7 @@
       <c r="W1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="12" t="s">
+      <c r="X1" s="11" t="s">
         <v>23</v>
       </c>
       <c r="Y1" s="10" t="s">
@@ -886,7 +861,7 @@
       <c r="AB1" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="13" t="s">
+      <c r="AC1" s="10" t="s">
         <v>28</v>
       </c>
       <c r="AD1" s="4" t="s">
@@ -904,695 +879,943 @@
       <c r="AH1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="14" t="s">
+      <c r="AI1" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="15" t="s">
+      <c r="AJ1" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="14" t="s">
+      <c r="AK1" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="15" t="s">
+      <c r="AL1" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="14" t="s">
+      <c r="AM1" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="15" t="s">
+      <c r="AN1" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="14" t="s">
+      <c r="AO1" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="15" t="s">
+      <c r="AP1" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="14" t="s">
+      <c r="AQ1" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="15" t="s">
+      <c r="AR1" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="14" t="s">
+      <c r="AS1" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="15" t="s">
+      <c r="AT1" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="14" t="s">
+      <c r="AU1" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="15" t="s">
+      <c r="AV1" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="16" t="s">
+      <c r="AW1" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="17" t="s">
+      <c r="AX1" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="18" t="s">
+      <c r="AY1" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="18" t="s">
+      <c r="AZ1" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="18" t="s">
+      <c r="BA1" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="19" t="s">
+      <c r="BB1" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="19" t="s">
+      <c r="BC1" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="19" t="s">
+      <c r="BD1" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="20" t="s">
+      <c r="BE1" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="20" t="s">
+      <c r="BF1" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="20" t="s">
+      <c r="BG1" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="21" t="s">
+      <c r="BH1" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="22" t="s">
+      <c r="BI1" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" s="22" t="s">
+      <c r="BJ1" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" s="22" t="s">
+      <c r="BK1" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" s="22" t="s">
+      <c r="BL1" s="19" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="57.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="21" t="n">
         <v>11111111111</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24" t="str">
+      <c r="F2" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22" t="str">
         <f aca="false">E2</f>
         <v>Dzintaru iela 97/99-92, Liepāja</v>
       </c>
-      <c r="M2" s="0" t="n">
+      <c r="M2" s="21" t="n">
         <v>2000</v>
       </c>
-      <c r="N2" s="24" t="s">
+      <c r="N2" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="O2" s="24" t="s">
+      <c r="O2" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="P2" s="26" t="n">
-        <v>44181</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="R2" s="26" t="n">
+      <c r="P2" s="24" t="n">
+        <v>44181</v>
+      </c>
+      <c r="Q2" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="R2" s="24" t="n">
         <v>44182</v>
       </c>
-      <c r="S2" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="T2" s="26" t="n">
-        <v>44181</v>
-      </c>
-      <c r="U2" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="V2" s="26" t="n">
+      <c r="S2" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="T2" s="24" t="n">
+        <v>44181</v>
+      </c>
+      <c r="U2" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="V2" s="24" t="n">
         <v>44182</v>
       </c>
-      <c r="W2" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="X2" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y2" s="26" t="n">
+      <c r="W2" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="X2" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y2" s="24" t="n">
         <v>44306</v>
       </c>
-      <c r="Z2" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA2" s="26" t="n">
-        <v>44181</v>
-      </c>
-      <c r="AB2" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC2" s="26" t="n">
+      <c r="Z2" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA2" s="24" t="n">
+        <v>44181</v>
+      </c>
+      <c r="AB2" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC2" s="24" t="n">
         <v>44306</v>
       </c>
-      <c r="AD2" s="24" t="s">
+      <c r="AD2" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="AE2" s="24" t="s">
+      <c r="AE2" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="AF2" s="0" t="n">
+      <c r="AF2" s="21" t="n">
         <f aca="false">M2</f>
         <v>2000</v>
       </c>
-      <c r="AG2" s="0" t="s">
+      <c r="AG2" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="AH2" s="1" t="s">
+      <c r="AH2" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="AI2" s="26" t="n">
-        <v>44181</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AK2" s="26" t="n">
-        <v>44181</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AM2" s="26" t="n">
-        <v>44181</v>
-      </c>
-      <c r="AN2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AO2" s="26" t="n">
-        <v>44181</v>
-      </c>
-      <c r="AP2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AQ2" s="26" t="n">
-        <v>44181</v>
-      </c>
-      <c r="AR2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AS2" s="26" t="n">
-        <v>44181</v>
-      </c>
-      <c r="AT2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AU2" s="26" t="n">
-        <v>44181</v>
-      </c>
-      <c r="AV2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AW2" s="24" t="n">
+      <c r="AI2" s="24" t="n">
+        <v>44181</v>
+      </c>
+      <c r="AJ2" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK2" s="24" t="n">
+        <v>44181</v>
+      </c>
+      <c r="AL2" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM2" s="24" t="n">
+        <v>44181</v>
+      </c>
+      <c r="AN2" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO2" s="24" t="n">
+        <v>44181</v>
+      </c>
+      <c r="AP2" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ2" s="24" t="n">
+        <v>44181</v>
+      </c>
+      <c r="AR2" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="AS2" s="24" t="n">
+        <v>44181</v>
+      </c>
+      <c r="AT2" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="AU2" s="24" t="n">
+        <v>44181</v>
+      </c>
+      <c r="AV2" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="AW2" s="22" t="n">
         <v>7430</v>
       </c>
-      <c r="AX2" s="27" t="s">
+      <c r="AX2" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="AY2" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="BB2" s="0" t="n">
+      <c r="AY2" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="AZ2" s="21"/>
+      <c r="BA2" s="21"/>
+      <c r="BB2" s="21" t="n">
         <v>80</v>
       </c>
-      <c r="BC2" s="0" t="n">
+      <c r="BC2" s="21" t="n">
         <v>75</v>
       </c>
-      <c r="BD2" s="0" t="n">
+      <c r="BD2" s="21" t="n">
         <v>60</v>
       </c>
-      <c r="BE2" s="0" t="n">
+      <c r="BE2" s="21" t="n">
         <v>1689540</v>
       </c>
-      <c r="BF2" s="0" t="n">
+      <c r="BF2" s="21" t="n">
         <v>800000</v>
       </c>
-      <c r="BG2" s="0" t="n">
+      <c r="BG2" s="21" t="n">
         <v>55</v>
       </c>
-      <c r="BH2" s="0" t="s">
+      <c r="BH2" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="BJ2" s="0" t="s">
-        <v>67</v>
-      </c>
+      <c r="BI2" s="21"/>
+      <c r="BJ2" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="BK2" s="21"/>
+      <c r="BL2" s="21"/>
     </row>
     <row r="3" customFormat="false" ht="57.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="21" t="n">
         <v>232136</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="21" t="n">
         <v>22222222222</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="24" t="s">
+      <c r="F3" s="22"/>
+      <c r="G3" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="M3" s="0" t="n">
+      <c r="M3" s="21" t="n">
         <v>1520</v>
       </c>
-      <c r="N3" s="24" t="s">
+      <c r="N3" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="O3" s="24" t="s">
+      <c r="O3" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="P3" s="26" t="n">
+      <c r="P3" s="24" t="n">
         <v>44120</v>
       </c>
-      <c r="Q3" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="R3" s="26" t="n">
+      <c r="Q3" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="R3" s="24" t="n">
         <v>44120</v>
       </c>
-      <c r="S3" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="T3" s="26" t="n">
+      <c r="S3" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="T3" s="24" t="n">
         <v>44120</v>
       </c>
-      <c r="U3" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="V3" s="26" t="n">
+      <c r="U3" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="V3" s="24" t="n">
         <v>44120</v>
       </c>
-      <c r="W3" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="X3" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y3" s="26" t="n">
+      <c r="W3" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="X3" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y3" s="24" t="n">
         <v>44306</v>
       </c>
-      <c r="Z3" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA3" s="26" t="n">
-        <v>44181</v>
-      </c>
-      <c r="AC3" s="26" t="n">
+      <c r="Z3" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA3" s="24" t="n">
+        <v>44181</v>
+      </c>
+      <c r="AB3" s="21"/>
+      <c r="AC3" s="24" t="n">
         <v>44306</v>
       </c>
-      <c r="AD3" s="24" t="s">
+      <c r="AD3" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="AE3" s="24" t="s">
+      <c r="AE3" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="AF3" s="0" t="n">
+      <c r="AF3" s="21" t="n">
         <f aca="false">M3</f>
         <v>1520</v>
       </c>
-      <c r="AG3" s="1" t="s">
+      <c r="AG3" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="AH3" s="1" t="s">
+      <c r="AH3" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="AI3" s="26" t="n">
-        <v>44181</v>
-      </c>
-      <c r="AJ3" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AK3" s="26" t="n">
-        <v>44181</v>
-      </c>
-      <c r="AL3" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AM3" s="26" t="n">
-        <v>44181</v>
-      </c>
-      <c r="AN3" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AO3" s="26" t="n">
-        <v>44181</v>
-      </c>
-      <c r="AP3" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AQ3" s="26" t="n">
-        <v>44181</v>
-      </c>
-      <c r="AR3" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AS3" s="26" t="n">
-        <v>44181</v>
-      </c>
-      <c r="AT3" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AU3" s="26" t="n">
-        <v>44181</v>
-      </c>
-      <c r="AV3" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AW3" s="24" t="n">
+      <c r="AI3" s="24" t="n">
+        <v>44181</v>
+      </c>
+      <c r="AJ3" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK3" s="24" t="n">
+        <v>44181</v>
+      </c>
+      <c r="AL3" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM3" s="24" t="n">
+        <v>44181</v>
+      </c>
+      <c r="AN3" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO3" s="24" t="n">
+        <v>44181</v>
+      </c>
+      <c r="AP3" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ3" s="24" t="n">
+        <v>44181</v>
+      </c>
+      <c r="AR3" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="AS3" s="24" t="n">
+        <v>44181</v>
+      </c>
+      <c r="AT3" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="AU3" s="24" t="n">
+        <v>44181</v>
+      </c>
+      <c r="AV3" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="AW3" s="22" t="n">
         <v>7430</v>
       </c>
-      <c r="AX3" s="27" t="s">
+      <c r="AX3" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="AZ3" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="BB3" s="0" t="n">
+      <c r="AY3" s="21"/>
+      <c r="AZ3" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="BA3" s="21"/>
+      <c r="BB3" s="21" t="n">
         <v>50</v>
       </c>
-      <c r="BC3" s="0" t="n">
+      <c r="BC3" s="21" t="n">
         <v>36</v>
       </c>
-      <c r="BD3" s="0" t="n">
+      <c r="BD3" s="21" t="n">
         <v>25</v>
       </c>
-      <c r="BE3" s="0" t="n">
+      <c r="BE3" s="21" t="n">
         <v>400000</v>
       </c>
-      <c r="BF3" s="0" t="n">
+      <c r="BF3" s="21" t="n">
         <v>800000</v>
       </c>
-      <c r="BG3" s="0" t="n">
+      <c r="BG3" s="21" t="n">
         <v>15</v>
       </c>
-      <c r="BH3" s="0" t="s">
+      <c r="BH3" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="BJ3" s="0" t="s">
-        <v>67</v>
-      </c>
+      <c r="BI3" s="21"/>
+      <c r="BJ3" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="BK3" s="21"/>
+      <c r="BL3" s="21"/>
     </row>
     <row r="4" customFormat="false" ht="57" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="21" t="n">
         <v>3</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="21" t="n">
         <v>33333333333</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="L4" s="24" t="str">
+      <c r="F4" s="21"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="22" t="str">
         <f aca="false">E4</f>
         <v>Dzintaru iela 97/99-92, Liepāja</v>
       </c>
-      <c r="M4" s="0" t="n">
+      <c r="M4" s="21" t="n">
         <v>3000</v>
       </c>
-      <c r="N4" s="24" t="s">
+      <c r="N4" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="O4" s="24" t="s">
+      <c r="O4" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="P4" s="26" t="n">
+      <c r="P4" s="24" t="n">
         <v>44175</v>
       </c>
-      <c r="R4" s="26" t="n">
+      <c r="Q4" s="25"/>
+      <c r="R4" s="24" t="n">
         <v>44175</v>
       </c>
-      <c r="T4" s="26" t="n">
-        <v>44181</v>
-      </c>
-      <c r="X4" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y4" s="26" t="n">
-        <v>44181</v>
-      </c>
-      <c r="AC4" s="26" t="n">
+      <c r="S4" s="21"/>
+      <c r="T4" s="24" t="n">
+        <v>44181</v>
+      </c>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y4" s="24" t="n">
+        <v>44181</v>
+      </c>
+      <c r="Z4" s="21"/>
+      <c r="AA4" s="21"/>
+      <c r="AB4" s="21"/>
+      <c r="AC4" s="24" t="n">
         <v>44367</v>
       </c>
-      <c r="AD4" s="24" t="s">
+      <c r="AD4" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="AE4" s="24" t="s">
+      <c r="AE4" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="AF4" s="0" t="n">
+      <c r="AF4" s="21" t="n">
         <f aca="false">M4</f>
         <v>3000</v>
       </c>
-      <c r="AG4" s="0" t="s">
+      <c r="AG4" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="AH4" s="0" t="s">
+      <c r="AH4" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="AI4" s="26" t="n">
-        <v>44181</v>
-      </c>
-      <c r="AJ4" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AK4" s="26" t="n">
-        <v>44181</v>
-      </c>
-      <c r="AL4" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AM4" s="26" t="n">
-        <v>44181</v>
-      </c>
-      <c r="AN4" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AO4" s="26" t="n">
-        <v>44181</v>
-      </c>
-      <c r="AP4" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AQ4" s="26" t="n">
-        <v>44181</v>
-      </c>
-      <c r="AR4" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AS4" s="26" t="n">
-        <v>44181</v>
-      </c>
-      <c r="AU4" s="26" t="n">
-        <v>44181</v>
-      </c>
-      <c r="AW4" s="24" t="n">
+      <c r="AI4" s="24" t="n">
+        <v>44181</v>
+      </c>
+      <c r="AJ4" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK4" s="24" t="n">
+        <v>44181</v>
+      </c>
+      <c r="AL4" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM4" s="24" t="n">
+        <v>44181</v>
+      </c>
+      <c r="AN4" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO4" s="24" t="n">
+        <v>44181</v>
+      </c>
+      <c r="AP4" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ4" s="24" t="n">
+        <v>44181</v>
+      </c>
+      <c r="AR4" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="AS4" s="24" t="n">
+        <v>44181</v>
+      </c>
+      <c r="AT4" s="25"/>
+      <c r="AU4" s="24" t="n">
+        <v>44181</v>
+      </c>
+      <c r="AV4" s="21"/>
+      <c r="AW4" s="22" t="n">
         <v>7430</v>
       </c>
-      <c r="AX4" s="27" t="s">
+      <c r="AX4" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="BA4" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="BB4" s="0" t="n">
+      <c r="AY4" s="21"/>
+      <c r="AZ4" s="21"/>
+      <c r="BA4" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="BB4" s="21" t="n">
         <v>55</v>
       </c>
-      <c r="BC4" s="0" t="n">
+      <c r="BC4" s="21" t="n">
         <v>40</v>
       </c>
-      <c r="BD4" s="0" t="n">
+      <c r="BD4" s="21" t="n">
         <v>30</v>
       </c>
-      <c r="BE4" s="0" t="n">
+      <c r="BE4" s="21" t="n">
         <v>500000</v>
       </c>
-      <c r="BF4" s="0" t="n">
+      <c r="BF4" s="21" t="n">
         <v>500000</v>
       </c>
-      <c r="BG4" s="0" t="n">
+      <c r="BG4" s="21" t="n">
         <v>20</v>
       </c>
-      <c r="BH4" s="0" t="s">
+      <c r="BH4" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="BK4" s="0" t="s">
-        <v>67</v>
-      </c>
+      <c r="BI4" s="21"/>
+      <c r="BJ4" s="21"/>
+      <c r="BK4" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="BL4" s="21"/>
     </row>
     <row r="5" customFormat="false" ht="57" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="21" t="n">
         <v>4</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" s="21" t="n">
         <v>44444444444</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="L5" s="24" t="s">
+      <c r="F5" s="21"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5" s="25"/>
+      <c r="L5" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="M5" s="0" t="n">
+      <c r="M5" s="21" t="n">
         <v>1700</v>
       </c>
-      <c r="N5" s="24" t="s">
+      <c r="N5" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="O5" s="24" t="s">
+      <c r="O5" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="P5" s="26" t="n">
+      <c r="P5" s="24" t="n">
         <v>44146</v>
       </c>
-      <c r="Q5" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="R5" s="26" t="n">
+      <c r="Q5" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="R5" s="24" t="n">
         <v>44146</v>
       </c>
-      <c r="S5" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC5" s="26" t="n">
+      <c r="S5" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="T5" s="21"/>
+      <c r="U5" s="21"/>
+      <c r="V5" s="21"/>
+      <c r="W5" s="21"/>
+      <c r="X5" s="21"/>
+      <c r="Y5" s="21"/>
+      <c r="Z5" s="21"/>
+      <c r="AA5" s="21"/>
+      <c r="AB5" s="21"/>
+      <c r="AC5" s="24" t="n">
         <v>44367</v>
       </c>
-      <c r="AD5" s="24" t="s">
+      <c r="AD5" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="AE5" s="24" t="s">
+      <c r="AE5" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="AF5" s="0" t="n">
+      <c r="AF5" s="21" t="n">
         <f aca="false">M5</f>
         <v>1700</v>
       </c>
-      <c r="AG5" s="0" t="s">
+      <c r="AG5" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="AH5" s="0" t="s">
+      <c r="AH5" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="AI5" s="26" t="n">
-        <v>44181</v>
-      </c>
-      <c r="AJ5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AK5" s="26" t="n">
-        <v>44181</v>
-      </c>
-      <c r="AL5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AM5" s="26" t="n">
-        <v>44181</v>
-      </c>
-      <c r="AN5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AO5" s="26" t="n">
-        <v>44181</v>
-      </c>
-      <c r="AQ5" s="26" t="n">
-        <v>44181</v>
-      </c>
-      <c r="AS5" s="26" t="n">
-        <v>44181</v>
-      </c>
-      <c r="AU5" s="26" t="n">
-        <v>44181</v>
-      </c>
-      <c r="AW5" s="24" t="n">
+      <c r="AI5" s="24" t="n">
+        <v>44181</v>
+      </c>
+      <c r="AJ5" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK5" s="24" t="n">
+        <v>44181</v>
+      </c>
+      <c r="AL5" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM5" s="24" t="n">
+        <v>44181</v>
+      </c>
+      <c r="AN5" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO5" s="24" t="n">
+        <v>44181</v>
+      </c>
+      <c r="AP5" s="25"/>
+      <c r="AQ5" s="24" t="n">
+        <v>44181</v>
+      </c>
+      <c r="AR5" s="25"/>
+      <c r="AS5" s="24" t="n">
+        <v>44181</v>
+      </c>
+      <c r="AT5" s="25"/>
+      <c r="AU5" s="24" t="n">
+        <v>44181</v>
+      </c>
+      <c r="AV5" s="21"/>
+      <c r="AW5" s="22" t="n">
         <v>7430</v>
       </c>
-      <c r="AX5" s="27" t="s">
+      <c r="AX5" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="AY5" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="BB5" s="0" t="n">
+      <c r="AY5" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="AZ5" s="21"/>
+      <c r="BA5" s="21"/>
+      <c r="BB5" s="21" t="n">
         <v>75</v>
       </c>
-      <c r="BC5" s="0" t="n">
+      <c r="BC5" s="21" t="n">
         <v>60</v>
       </c>
-      <c r="BD5" s="0" t="n">
+      <c r="BD5" s="21" t="n">
         <v>40</v>
       </c>
-      <c r="BE5" s="0" t="n">
+      <c r="BE5" s="21" t="n">
         <v>1650000</v>
       </c>
-      <c r="BF5" s="0" t="n">
+      <c r="BF5" s="21" t="n">
         <v>900000</v>
       </c>
-      <c r="BG5" s="0" t="n">
+      <c r="BG5" s="21" t="n">
         <v>50</v>
       </c>
-      <c r="BH5" s="0" t="s">
+      <c r="BH5" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="BL5" s="0" t="s">
-        <v>67</v>
+      <c r="BI5" s="21"/>
+      <c r="BJ5" s="21"/>
+      <c r="BK5" s="21"/>
+      <c r="BL5" s="21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" s="21" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" s="21" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="E6" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="F6" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="G6" s="21" t="n">
+        <v>7</v>
+      </c>
+      <c r="H6" s="21" t="n">
+        <v>8</v>
+      </c>
+      <c r="I6" s="21" t="n">
+        <v>9</v>
+      </c>
+      <c r="J6" s="21" t="n">
+        <v>10</v>
+      </c>
+      <c r="K6" s="21" t="n">
+        <v>11</v>
+      </c>
+      <c r="L6" s="21" t="n">
+        <v>12</v>
+      </c>
+      <c r="M6" s="21" t="n">
+        <v>13</v>
+      </c>
+      <c r="N6" s="21" t="n">
+        <v>14</v>
+      </c>
+      <c r="O6" s="21" t="n">
+        <v>15</v>
+      </c>
+      <c r="P6" s="21" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q6" s="21" t="n">
+        <v>17</v>
+      </c>
+      <c r="R6" s="21" t="n">
+        <v>18</v>
+      </c>
+      <c r="S6" s="21" t="n">
+        <v>19</v>
+      </c>
+      <c r="T6" s="21" t="n">
+        <v>20</v>
+      </c>
+      <c r="U6" s="21" t="n">
+        <v>21</v>
+      </c>
+      <c r="V6" s="21" t="n">
+        <v>22</v>
+      </c>
+      <c r="W6" s="21" t="n">
+        <v>23</v>
+      </c>
+      <c r="X6" s="21" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y6" s="21" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z6" s="21" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA6" s="21" t="n">
+        <v>27</v>
+      </c>
+      <c r="AB6" s="21" t="n">
+        <v>28</v>
+      </c>
+      <c r="AC6" s="21" t="n">
+        <v>29</v>
+      </c>
+      <c r="AD6" s="21" t="n">
+        <v>30</v>
+      </c>
+      <c r="AE6" s="21" t="n">
+        <v>31</v>
+      </c>
+      <c r="AF6" s="21" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG6" s="21" t="n">
+        <v>33</v>
+      </c>
+      <c r="AH6" s="21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI6" s="21" t="n">
+        <v>35</v>
+      </c>
+      <c r="AJ6" s="21" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK6" s="21" t="n">
+        <v>37</v>
+      </c>
+      <c r="AL6" s="21" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM6" s="21" t="n">
+        <v>39</v>
+      </c>
+      <c r="AN6" s="21" t="n">
+        <v>40</v>
+      </c>
+      <c r="AO6" s="21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP6" s="21" t="n">
+        <v>42</v>
+      </c>
+      <c r="AQ6" s="21" t="n">
+        <v>43</v>
+      </c>
+      <c r="AR6" s="21" t="n">
+        <v>44</v>
+      </c>
+      <c r="AS6" s="21" t="n">
+        <v>45</v>
+      </c>
+      <c r="AT6" s="21" t="n">
+        <v>46</v>
+      </c>
+      <c r="AU6" s="21" t="n">
+        <v>47</v>
+      </c>
+      <c r="AV6" s="21" t="n">
+        <v>48</v>
+      </c>
+      <c r="AW6" s="21" t="n">
+        <v>49</v>
+      </c>
+      <c r="AX6" s="21" t="n">
+        <v>50</v>
+      </c>
+      <c r="AY6" s="21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AZ6" s="21" t="n">
+        <v>52</v>
+      </c>
+      <c r="BA6" s="21" t="n">
+        <v>53</v>
+      </c>
+      <c r="BB6" s="21" t="n">
+        <v>54</v>
+      </c>
+      <c r="BC6" s="21" t="n">
+        <v>55</v>
+      </c>
+      <c r="BD6" s="21" t="n">
+        <v>56</v>
+      </c>
+      <c r="BE6" s="21" t="n">
+        <v>57</v>
+      </c>
+      <c r="BF6" s="21" t="n">
+        <v>58</v>
+      </c>
+      <c r="BG6" s="21" t="n">
+        <v>59</v>
+      </c>
+      <c r="BH6" s="21" t="n">
+        <v>60</v>
+      </c>
+      <c r="BI6" s="21" t="n">
+        <v>61</v>
+      </c>
+      <c r="BJ6" s="21" t="n">
+        <v>62</v>
+      </c>
+      <c r="BK6" s="21" t="n">
+        <v>63</v>
+      </c>
+      <c r="BL6" s="21" t="n">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1620,46 +1843,46 @@
   <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="29" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="33" t="n">
+      <c r="C2" s="32" t="n">
         <v>67</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="33" t="n">
+      <c r="C3" s="32" t="n">
         <v>26</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="C4" s="33" t="n">
+      <c r="C4" s="32" t="n">
         <v>34</v>
       </c>
     </row>
@@ -1681,8 +1904,8 @@
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -524,7 +524,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -631,6 +631,10 @@
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -736,8 +740,8 @@
   </sheetPr>
   <dimension ref="A1:BL6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BQ2" activeCellId="0" sqref="BQ2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1625,196 +1629,196 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="21" t="n">
+      <c r="A6" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="B6" s="21" t="n">
+      <c r="B6" s="27" t="n">
         <v>2</v>
       </c>
-      <c r="C6" s="21" t="n">
+      <c r="C6" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="D6" s="21" t="n">
+      <c r="D6" s="27" t="n">
         <v>4</v>
       </c>
-      <c r="E6" s="21" t="n">
+      <c r="E6" s="27" t="n">
         <v>5</v>
       </c>
-      <c r="F6" s="21" t="n">
+      <c r="F6" s="27" t="n">
         <v>6</v>
       </c>
-      <c r="G6" s="21" t="n">
+      <c r="G6" s="27" t="n">
         <v>7</v>
       </c>
-      <c r="H6" s="21" t="n">
+      <c r="H6" s="27" t="n">
         <v>8</v>
       </c>
-      <c r="I6" s="21" t="n">
+      <c r="I6" s="27" t="n">
         <v>9</v>
       </c>
-      <c r="J6" s="21" t="n">
+      <c r="J6" s="27" t="n">
         <v>10</v>
       </c>
-      <c r="K6" s="21" t="n">
+      <c r="K6" s="27" t="n">
         <v>11</v>
       </c>
-      <c r="L6" s="21" t="n">
+      <c r="L6" s="27" t="n">
         <v>12</v>
       </c>
-      <c r="M6" s="21" t="n">
+      <c r="M6" s="27" t="n">
         <v>13</v>
       </c>
-      <c r="N6" s="21" t="n">
+      <c r="N6" s="27" t="n">
         <v>14</v>
       </c>
-      <c r="O6" s="21" t="n">
+      <c r="O6" s="27" t="n">
         <v>15</v>
       </c>
-      <c r="P6" s="21" t="n">
+      <c r="P6" s="27" t="n">
         <v>16</v>
       </c>
-      <c r="Q6" s="21" t="n">
+      <c r="Q6" s="27" t="n">
         <v>17</v>
       </c>
-      <c r="R6" s="21" t="n">
+      <c r="R6" s="27" t="n">
         <v>18</v>
       </c>
-      <c r="S6" s="21" t="n">
+      <c r="S6" s="27" t="n">
         <v>19</v>
       </c>
-      <c r="T6" s="21" t="n">
+      <c r="T6" s="27" t="n">
         <v>20</v>
       </c>
-      <c r="U6" s="21" t="n">
+      <c r="U6" s="27" t="n">
         <v>21</v>
       </c>
-      <c r="V6" s="21" t="n">
+      <c r="V6" s="27" t="n">
         <v>22</v>
       </c>
-      <c r="W6" s="21" t="n">
+      <c r="W6" s="27" t="n">
         <v>23</v>
       </c>
-      <c r="X6" s="21" t="n">
+      <c r="X6" s="27" t="n">
         <v>24</v>
       </c>
-      <c r="Y6" s="21" t="n">
+      <c r="Y6" s="27" t="n">
         <v>25</v>
       </c>
-      <c r="Z6" s="21" t="n">
+      <c r="Z6" s="27" t="n">
         <v>26</v>
       </c>
-      <c r="AA6" s="21" t="n">
+      <c r="AA6" s="27" t="n">
         <v>27</v>
       </c>
-      <c r="AB6" s="21" t="n">
+      <c r="AB6" s="27" t="n">
         <v>28</v>
       </c>
-      <c r="AC6" s="21" t="n">
+      <c r="AC6" s="27" t="n">
         <v>29</v>
       </c>
-      <c r="AD6" s="21" t="n">
+      <c r="AD6" s="27" t="n">
         <v>30</v>
       </c>
-      <c r="AE6" s="21" t="n">
+      <c r="AE6" s="27" t="n">
         <v>31</v>
       </c>
-      <c r="AF6" s="21" t="n">
+      <c r="AF6" s="27" t="n">
         <v>32</v>
       </c>
-      <c r="AG6" s="21" t="n">
+      <c r="AG6" s="27" t="n">
         <v>33</v>
       </c>
-      <c r="AH6" s="21" t="n">
+      <c r="AH6" s="27" t="n">
         <v>34</v>
       </c>
-      <c r="AI6" s="21" t="n">
+      <c r="AI6" s="27" t="n">
         <v>35</v>
       </c>
-      <c r="AJ6" s="21" t="n">
+      <c r="AJ6" s="27" t="n">
         <v>36</v>
       </c>
-      <c r="AK6" s="21" t="n">
+      <c r="AK6" s="27" t="n">
         <v>37</v>
       </c>
-      <c r="AL6" s="21" t="n">
+      <c r="AL6" s="27" t="n">
         <v>38</v>
       </c>
-      <c r="AM6" s="21" t="n">
+      <c r="AM6" s="27" t="n">
         <v>39</v>
       </c>
-      <c r="AN6" s="21" t="n">
+      <c r="AN6" s="27" t="n">
         <v>40</v>
       </c>
-      <c r="AO6" s="21" t="n">
+      <c r="AO6" s="27" t="n">
         <v>41</v>
       </c>
-      <c r="AP6" s="21" t="n">
+      <c r="AP6" s="27" t="n">
         <v>42</v>
       </c>
-      <c r="AQ6" s="21" t="n">
+      <c r="AQ6" s="27" t="n">
         <v>43</v>
       </c>
-      <c r="AR6" s="21" t="n">
+      <c r="AR6" s="27" t="n">
         <v>44</v>
       </c>
-      <c r="AS6" s="21" t="n">
+      <c r="AS6" s="27" t="n">
         <v>45</v>
       </c>
-      <c r="AT6" s="21" t="n">
+      <c r="AT6" s="27" t="n">
         <v>46</v>
       </c>
-      <c r="AU6" s="21" t="n">
+      <c r="AU6" s="27" t="n">
         <v>47</v>
       </c>
-      <c r="AV6" s="21" t="n">
+      <c r="AV6" s="27" t="n">
         <v>48</v>
       </c>
-      <c r="AW6" s="21" t="n">
+      <c r="AW6" s="27" t="n">
         <v>49</v>
       </c>
-      <c r="AX6" s="21" t="n">
+      <c r="AX6" s="27" t="n">
         <v>50</v>
       </c>
-      <c r="AY6" s="21" t="n">
+      <c r="AY6" s="27" t="n">
         <v>51</v>
       </c>
-      <c r="AZ6" s="21" t="n">
+      <c r="AZ6" s="27" t="n">
         <v>52</v>
       </c>
-      <c r="BA6" s="21" t="n">
+      <c r="BA6" s="27" t="n">
         <v>53</v>
       </c>
-      <c r="BB6" s="21" t="n">
+      <c r="BB6" s="27" t="n">
         <v>54</v>
       </c>
-      <c r="BC6" s="21" t="n">
+      <c r="BC6" s="27" t="n">
         <v>55</v>
       </c>
-      <c r="BD6" s="21" t="n">
+      <c r="BD6" s="27" t="n">
         <v>56</v>
       </c>
-      <c r="BE6" s="21" t="n">
+      <c r="BE6" s="27" t="n">
         <v>57</v>
       </c>
-      <c r="BF6" s="21" t="n">
+      <c r="BF6" s="27" t="n">
         <v>58</v>
       </c>
-      <c r="BG6" s="21" t="n">
+      <c r="BG6" s="27" t="n">
         <v>59</v>
       </c>
-      <c r="BH6" s="21" t="n">
+      <c r="BH6" s="27" t="n">
         <v>60</v>
       </c>
-      <c r="BI6" s="21" t="n">
+      <c r="BI6" s="27" t="n">
         <v>61</v>
       </c>
-      <c r="BJ6" s="21" t="n">
+      <c r="BJ6" s="27" t="n">
         <v>62</v>
       </c>
-      <c r="BK6" s="21" t="n">
+      <c r="BK6" s="27" t="n">
         <v>63</v>
       </c>
-      <c r="BL6" s="21" t="n">
+      <c r="BL6" s="27" t="n">
         <v>64</v>
       </c>
     </row>
@@ -1843,46 +1847,46 @@
   <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="30" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="32" t="n">
+      <c r="C2" s="33" t="n">
         <v>67</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="32" t="n">
+      <c r="C3" s="33" t="n">
         <v>26</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="C4" s="32" t="n">
+      <c r="C4" s="33" t="n">
         <v>34</v>
       </c>
     </row>
